--- a/Excel/Excel Project - Personal Finance Dashboard.xlsx
+++ b/Excel/Excel Project - Personal Finance Dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Downloads\maggiehuang-portfolio\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f523706907a9c2e/Desktop/maggiehuang-portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E4246B-098A-4C89-90D5-4C4F47DB89F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{33E4246B-098A-4C89-90D5-4C4F47DB89F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C16CF7-A7A5-4F2D-96DF-259DE8BD1B6F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2" xr2:uid="{C6625131-D1AF-41CE-98AF-5BA26039117F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{C6625131-D1AF-41CE-98AF-5BA26039117F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" state="hidden" r:id="rId1"/>
@@ -716,6 +716,147 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mmm\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="12"/>
       </font>
     </dxf>
@@ -850,6 +991,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$NTD]\ * #,##0_-;\-[$NTD]\ * #,##0_-;_-[$NTD]\ * &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     </dxf>
     <dxf>
@@ -914,6 +1058,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1064,37 +1213,6 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="mmm\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="12"/>
       </font>
     </dxf>
@@ -1128,7 +1246,21 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$NTD]\ * #,##0_-;\-[$NTD]\ * #,##0_-;_-[$NTD]\ * &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1186,15 +1318,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$NTD]\ * #,##0_-;\-[$NTD]\ * #,##0_-;_-[$NTD]\ * &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="yyyy"/>
@@ -1281,130 +1405,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$NTD]\ * #,##0_-;\-[$NTD]\ * #,##0_-;_-[$NTD]\ * &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1945,7 +1945,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project_Personal Finance Dashboard.xlsx]Pivot Table!Total_by_Month_in_Selected_Year</c:name>
+    <c:name>[Excel Project - Personal Finance Dashboard.xlsx]Pivot Table!Total_by_Month_in_Selected_Year</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -2737,7 +2737,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project_Personal Finance Dashboard.xlsx]Pivot Table!Income_by_Method</c:name>
+    <c:name>[Excel Project - Personal Finance Dashboard.xlsx]Pivot Table!Income_by_Method</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -3200,7 +3200,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project_Personal Finance Dashboard.xlsx]Pivot Table!Expense_by_Method</c:name>
+    <c:name>[Excel Project - Personal Finance Dashboard.xlsx]Pivot Table!Expense_by_Method</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -3682,7 +3682,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project_Personal Finance Dashboard.xlsx]Pivot Table!Expense_by_Subcategory</c:name>
+    <c:name>[Excel Project - Personal Finance Dashboard.xlsx]Pivot Table!Expense_by_Subcategory</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -8647,6 +8647,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Maggie Huang" refreshedDate="45443.001816087963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1403" xr:uid="{C2EFD86E-CDCC-4C6F-B1C6-E6A7874A44BE}">
   <cacheSource type="worksheet">
@@ -20421,11 +20425,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EB124C3-C22D-43AA-A364-4D78B3DA1753}" name="Total_by_Month_in_Selected_Year" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Type" colHeaderCaption="Type">
-  <location ref="D2:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3820034D-3AE5-4DE1-8828-02A5C1463566}" name="Total_in_Selected_Year" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
+  <location ref="A7:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0">
-      <items count="413">
+    <pivotField numFmtId="164" showAll="0">
+      <items count="414">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -20839,290 +20843,138 @@
         <item x="410"/>
         <item x="411"/>
         <item x="412"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item h="1" sd="0" x="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
         <item x="1"/>
         <item h="1" x="2"/>
-        <item h="1" sd="0" x="3"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="6"/>
+  <rowFields count="1">
+    <field x="2"/>
   </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="2">
+  <rowItems count="2">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
-  <formats count="20">
-    <format dxfId="19">
+  <formats count="11">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="7">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="9" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FF2ABF5-42B4-4333-B8FD-6827553E549F}" name="Expense_by_Method" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Method" colHeaderCaption="Type">
-  <location ref="M11:N14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{658B152F-0C63-4CD2-B2E2-5686A98DC5B5}" name="Year_Selected" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
+  <location ref="D24:D25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0">
-      <items count="413">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="414">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -21536,178 +21388,141 @@
         <item x="410"/>
         <item x="411"/>
         <item x="412"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="0" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Year" fld="0" subtotal="min" baseField="0" baseItem="1" numFmtId="168"/>
   </dataFields>
-  <formats count="13">
+  <formats count="17">
     <format dxfId="138">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="137">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="135">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="134">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="132">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="132">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
     <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="130">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="129">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="128">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="127">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="126">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="11" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </chartFormat>
-  </chartFormats>
+    </format>
+    <format dxfId="125">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="124">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="122">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="840" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45413"/>
-            <customFilter operator="lessThanOrEqual" val="45443"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -22259,6 +22074,1883 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49CB1964-702D-4879-B729-50DA709009BD}" name="Timeline_Selected" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
+  <location ref="D30:E31" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="414">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="From" fld="0" subtotal="min" baseField="0" baseItem="1"/>
+    <dataField name="To" fld="0" subtotal="max" baseField="0" baseItem="1"/>
+  </dataFields>
+  <formats count="16">
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="483" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45413"/>
+            <customFilter operator="lessThanOrEqual" val="45443"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EB124C3-C22D-43AA-A364-4D78B3DA1753}" name="Total_by_Month_in_Selected_Year" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Type" colHeaderCaption="Type">
+  <location ref="D2:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0">
+      <items count="413">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item h="1" sd="0" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="46">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60B087CC-B2EF-4DB4-8CFE-B241067D1FF1}" name="Income_by_Method" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Method" colHeaderCaption="Method">
+  <location ref="M4:N5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0">
+      <items count="413">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="59">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="14" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="840" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45413"/>
+            <customFilter operator="lessThanOrEqual" val="45443"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA1463FE-85B7-406D-A3CE-D88F2AD7C25D}" name="Expense_by_Category" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category" colHeaderCaption="Category">
   <location ref="H11:I19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -22786,22 +24478,22 @@
     <dataField name="Sum" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="31">
+    <format dxfId="71">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="70">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="69">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="67">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="11">
@@ -22820,19 +24512,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="64">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="62">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="11">
@@ -22851,7 +24543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -22884,571 +24576,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5838F27E-546E-4DDE-9805-E2F395C7304F}" name="Total_in_Selected_Months" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
-  <location ref="A12:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="164" showAll="0">
-      <items count="414">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="828" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45413"/>
-            <customFilter operator="lessThanOrEqual" val="45443"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60B087CC-B2EF-4DB4-8CFE-B241067D1FF1}" name="Income_by_Method" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Method" colHeaderCaption="Method">
-  <location ref="M4:N5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FF2ABF5-42B4-4333-B8FD-6827553E549F}" name="Expense_by_Method" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Method" colHeaderCaption="Type">
+  <location ref="M11:N14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0">
       <items count="413">
@@ -23933,77 +25063,77 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="3">
     <i>
-      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
+    <pageField fld="2" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="55">
+    <format dxfId="84">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="83">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="79">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="2">
-            <x v="0"/>
-            <x v="3"/>
-          </reference>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="76">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="74">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="2">
-            <x v="0"/>
-            <x v="3"/>
-          </reference>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="14" format="2" series="1">
+    <chartFormat chart="11" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -24037,1230 +25167,6 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3892588-C2A0-4131-A387-7C662FCE8B1F}" name="Income_by_Category" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Category" colHeaderCaption="Type">
-  <location ref="H4:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="164" showAll="0">
-      <items count="414">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="8"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="68">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="2">
-            <x v="8"/>
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="2">
-            <x v="8"/>
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="840" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45413"/>
-            <customFilter operator="lessThanOrEqual" val="45443"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49CB1964-702D-4879-B729-50DA709009BD}" name="Timeline_Selected" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
-  <location ref="D30:E31" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" numFmtId="164" showAll="0">
-      <items count="414">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="From" fld="0" subtotal="min" baseField="0" baseItem="1"/>
-    <dataField name="To" fld="0" subtotal="max" baseField="0" baseItem="1"/>
-  </dataFields>
-  <formats count="16">
-    <format dxfId="84">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="71">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="483" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45413"/>
-            <customFilter operator="lessThanOrEqual" val="45443"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -25956,10 +25862,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{658B152F-0C63-4CD2-B2E2-5686A98DC5B5}" name="Year_Selected" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
-  <location ref="D24:D25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3892588-C2A0-4131-A387-7C662FCE8B1F}" name="Income_by_Category" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Category" colHeaderCaption="Type">
+  <location ref="H4:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
-    <pivotField dataField="1" numFmtId="164" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="414">
         <item x="0"/>
         <item x="1"/>
@@ -26378,131 +26284,212 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisPage" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
         <item x="1"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
       </items>
     </pivotField>
   </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
   <rowItems count="1">
-    <i/>
+    <i>
+      <x v="8"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Year" fld="0" subtotal="min" baseField="0" baseItem="1" numFmtId="168"/>
+    <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="17">
-    <format dxfId="114">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="113">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="112">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
+  <formats count="13">
     <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
     <format dxfId="109">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="107">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="105">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="104">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
+          <reference field="3" count="2">
+            <x v="8"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
+    <format dxfId="100">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
     <format dxfId="99">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
+          <reference field="3" count="2">
+            <x v="8"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="98">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="840" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45413"/>
+            <customFilter operator="lessThanOrEqual" val="45443"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -26515,8 +26502,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3820034D-3AE5-4DE1-8828-02A5C1463566}" name="Total_in_Selected_Year" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
-  <location ref="A7:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5838F27E-546E-4DDE-9805-E2F395C7304F}" name="Total_in_Selected_Months" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type">
+  <location ref="A12:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="164" showAll="0">
       <items count="414">
@@ -26979,10 +26966,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -27005,49 +26992,66 @@
     <dataField name="Sum" fld="5" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="125">
+    <format dxfId="121">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="120">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="119">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="118">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="115">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="114">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="113">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="828" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45413"/>
+            <customFilter operator="lessThanOrEqual" val="45443"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -27859,9 +27863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE264E0-1157-434B-90F7-235D4AAFED6E}">
   <dimension ref="A1:F1404"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1407" sqref="C1407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -55961,17 +55965,17 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1404" xr:uid="{2968DC8D-261F-44AD-A2A3-07F34FB708A6}">
       <formula1>Type</formula1>
     </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="A2:A1404" xr:uid="{C8CC040C-8CD6-4CC5-8692-F1D07ABBA9BF}">
+      <formula1>44927</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1404" xr:uid="{84F3DF61-1ACA-4128-B3DF-12365478FBA1}">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1404" xr:uid="{C4362E8B-1F5A-4599-BF18-C8414C9E4FA3}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E1404" xr:uid="{9FADC1D8-B428-453D-B78F-6EB12A04F2B5}">
       <formula1>INDIRECT($D2)</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="A2:A1404" xr:uid="{C8CC040C-8CD6-4CC5-8692-F1D07ABBA9BF}">
-      <formula1>44927</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1404" xr:uid="{84F3DF61-1ACA-4128-B3DF-12365478FBA1}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55988,7 +55992,7 @@
   </sheetPr>
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:D15"/>
     </sheetView>
   </sheetViews>
